--- a/medicine/Enfance/Arthur_Ténor/Arthur_Ténor.xlsx
+++ b/medicine/Enfance/Arthur_Ténor/Arthur_Ténor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthur_T%C3%A9nor</t>
+          <t>Arthur_Ténor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Ténor, originaire de l’Allier, est un écrivain français, spécialisé dans la littérature pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthur_T%C3%A9nor</t>
+          <t>Arthur_Ténor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Ténor présente un roman à un éditeur qui lui conseille de s’intéresser au jeune public, conseil qu’il suit avec succès. Son premier roman est publié en 1998. Il est aujourd’hui, avec une bibliographie qui compte un peu plus de 160 titres, un des auteurs français parmi les plus lus. Il est lauréat de nombreux prix jeunesse, dont par exemple le Prix Tatou Noir des lycéens d'Agen, en 2021, pour Dead Lines (gulf stream), du Grand prix du roman de la Peep 2008 pour Les messagères des abysses (éd. Grasset J), du prix des collèges du Territoire de Belfort et du salon jeunesse d’Agen en 2010 pour Si vous tenez à le savoir.com (éd. du Masque) ou encore du prix littéraire ados « Délire de Lire » de Saumur pour E-machination (Seuil Jeunesse). Cet écrivain intervient beaucoup dans les établissements scolaires et les bibliothèques pour présenter son métier, ainsi que ses livres.[réf. nécessaire]
 Il a publié des récits pour toutes les tranches d’âges et dans pratiquement tous les domaines. Il est connu notamment pour ses récits historiques, sur les deux guerres mondiales, Versailles et Louis XIV ou encore le Moyen Âge et ses séries d’héroic fantasy chez Scrineo et au Seuil Jeunesse qui ont rencontré un vif succès.
-Il se décrit lui-même comme un « explorateur de l’Imaginaire »[2] et explique que sa passion de l’écriture est « semblable à celle d’un aventurier sans cesse en quête de contrées inconnues, de rencontres inoubliables, de péripéties palpitantes ». En ce sens, il s’intéresse de près à l’innovation. Ainsi a-t-il été le premier à proposer[réf. nécessaire] le principe du Dénouement à la demande pour permettre aux lecteurs de sa série L’elfe au dragon (Seuil Jeunesse) d’obtenir (ou « pas tout de suite ») la Révélation finale. Il a également inauguré le principe des fins alternatives, accessibles sur une page dédiée[3] de l’éditeur (Pocket Jeunesse), lors de la sortie de son roman Le livre dont vous êtes ENCORE la victime (en 2014). Il a aussi été le premier auteur jeunesse à publier des romans en format numérique, dont le premier roman numérique interactif.
+Il se décrit lui-même comme un « explorateur de l’Imaginaire » et explique que sa passion de l’écriture est « semblable à celle d’un aventurier sans cesse en quête de contrées inconnues, de rencontres inoubliables, de péripéties palpitantes ». En ce sens, il s’intéresse de près à l’innovation. Ainsi a-t-il été le premier à proposer[réf. nécessaire] le principe du Dénouement à la demande pour permettre aux lecteurs de sa série L’elfe au dragon (Seuil Jeunesse) d’obtenir (ou « pas tout de suite ») la Révélation finale. Il a également inauguré le principe des fins alternatives, accessibles sur une page dédiée de l’éditeur (Pocket Jeunesse), lors de la sortie de son roman Le livre dont vous êtes ENCORE la victime (en 2014). Il a aussi été le premier auteur jeunesse à publier des romans en format numérique, dont le premier roman numérique interactif.
 Scrineo Jeunesse est actuellement son principal éditeur, avec notamment des textes dans les collections " Engagé " et Roman d'horreur qui sont de vrais succès de librairie.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthur_T%C3%A9nor</t>
+          <t>Arthur_Ténor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le roman de l’Etrange Inconnu, éd. Pocket (coll. Jeunesse), 2005Réédité chez Airvey Editions en 2019
